--- a/PRODUTOS/Bebidas/Bebidas - Cervejas.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Cervejas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cerveja Petra Puro Malte Lata 269ml</t>
+          <t>Cerveja Brahma Malzibier Lt 350ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc7d5326-f3bc-4511-bd88-4908227a8c4a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a253a87c-e49d-4aad-a650-fc95cd5035cd.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891149101528</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cerveja Puro Malte Amstel Lata 269ml</t>
+          <t>Cerveja Itaipava Malzbier Lata 350ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14e83df2-2fbf-42de-8049-7fad6c052609.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bc53d9a-da9d-40e7-a426-d2331eea870d.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7897395020194</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lata 350ml</t>
+          <t>Cerveja Skol Pilsen Lata 350ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a171dba-668c-4d6f-a60c-429c42aa78c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29cb50a2-16e4-4bf4-8223-cb0062f7e020.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891149102112</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn Pilsen Puro Malte Lata 269ml</t>
+          <t>Cerveja Escura Caracu Lata 350ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76a14bfe-ef31-42b1-8e50-5b984e81d949.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffae7668-566d-489f-8e63-89e6783bd911.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891149210503</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Duplo Malte Lata 269ml</t>
+          <t>Cerveja Pilsen Bavaria Lata 350ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,39</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2892cee0-177f-4942-bada-a77c6b5e2136.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6fa5f82-23c2-4fc8-82db-562671559ab0.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896045503452</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cerveja Skol Pilsen Lata 269ml</t>
+          <t>Cerveja Heineken Lata 350ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a65a105d-fe52-42bf-a283-ea61ab418067.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a171dba-668c-4d6f-a60c-429c42aa78c0.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898961748863</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lager Lata 269ml</t>
+          <t>Cerveja Black Princes Escura 600ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a21c66e8-dc75-4845-ab78-17aaf1090e39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbfea8f1-942f-40b9-b476-2f6b014204fd.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898377660377</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cerveja Spaten Puro Malte Lata 269ml</t>
+          <t>Cerveja Skol Pilsen Lata 269ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9d0a488-8b67-4dae-a919-dc87c350d0a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a65a105d-fe52-42bf-a283-ea61ab418067.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891149102112</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cerveja Black Princess Gold Puro Malte Lata 350ml</t>
+          <t>Cerveja Itaipava Pilsen Lata 350ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5f7191-3631-4558-b38a-4bdcb17e62ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1aaf460-573c-4e33-8bc1-6cf3ef392612.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7897395020217</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cerveja Budweiser Larger Lata 269ml</t>
+          <t>Cerveja Itaipava Pilsen Long Neck 250ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f193b638-bfd7-406d-8176-2ddb8ea5217f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8feeea92-e9dd-4d86-8051-c006fabd98f9.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7897395040246</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cerveja Itaipava Pilsen Lata 269ml</t>
+          <t>Cerveja Pilsen Bavaria Lata 473ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 3,89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4776b1c-9f40-43f2-a1d8-abb8a3c80928.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa5e7c37-f11e-44fc-84ae-b0dfe830e3a2.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896045503452</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cerveja Original Pilsen Lata 269ml</t>
+          <t>Cerveja Itaipava Pilsen Lata 269ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aea77c1e-d57a-422e-a1fd-676460199240.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4776b1c-9f40-43f2-a1d8-abb8a3c80928.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7897395020217</t>
         </is>
       </c>
     </row>
@@ -785,7 +850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn Pilsen Lata 350ml</t>
+          <t>Cerveja Lager Budweiser Lata 350ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -795,7 +860,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b04825da-7405-4d96-a202-563daf0bf5c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c09f2b6a-936b-4032-95e0-546757886f34.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891991010481</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cerveja Estrella Galicia Lata 269ml</t>
+          <t>Cerveja Sol Premium Long Neck 330ml</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/731e8ffb-d841-4cd1-a714-86e58eb81df9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/214defe3-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896045507368</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lager Long Neck 330ml</t>
+          <t>Cerv Wienbier 56 Black 710ml</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2385d762-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aaa30c8c-08f7-4c25-a800-0283948fc0d2.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898099394680</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cerveja Bohemia Puro Malte Lata 269ml</t>
+          <t>Cerveja Original One Way 300ml</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd306833-d816-49ac-b77b-c3b5e69b6bdf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db7da7d8-e11b-4c89-b496-cb229a6c59c8.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891991009584</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cerveja Corona Extra Long Neck 330ml</t>
+          <t>Cerv Wienbier 58 Vinho 710ml</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 12,29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7e95a33-ebeb-4bd3-a055-a74bcf986901.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b579324f-771a-481b-baea-ccd41c7f25d0.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898099394758</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cerveja Therezópolis Gold Lager Lata 350ml</t>
+          <t>Cerveja Puro Malte Amstel Lata 269ml</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80de8e89-fe2d-4278-98a1-68185171dd7a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14e83df2-2fbf-42de-8049-7fad6c052609.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896045506415</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cerveja Itaipava Pilsen Lata 350ml</t>
+          <t>Cerveja Eisenbahn Pilsen Lata 350ml</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1aaf460-573c-4e33-8bc1-6cf3ef392612.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b04825da-7405-4d96-a202-563daf0bf5c1.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898367983790</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cerveja Sol Premium Long Neck 330ml</t>
+          <t>Cerveja Wienbier Sem Glúten 55 Lata 710ml</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/214defe3-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/031ee1e9-b179-43f2-a1c0-078f32b9dcb0.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898099394680</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lager Garrafa 600ml</t>
+          <t>Cerv Wienbier De Trigo 710ml</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08ad814c-8481-4ec8-a62d-e1f683d36b51.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5685e3f7-f1e7-4933-bbd4-352f3088c5f5.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898099396257</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lager Long Neck 250ml</t>
+          <t>Cerveja Black Princes Gf 600ml Doctor Weiss</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/229b95fd-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f426c743-d938-4f76-877c-d7698688b108.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898377661039</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cerveja Coronita Extra One Way Long Neck 210ml</t>
+          <t>Cerveja Petra Puro Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb139540-efd2-4f9b-9408-7e082fb313e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec797722-c7fa-41b3-bd21-9c624cc7ae9d.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7897395099299</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cerveja Petra Puro Malte Lata 350ml</t>
+          <t>Cerveja Cacildis Puro Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 3,39</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec797722-c7fa-41b3-bd21-9c624cc7ae9d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f05ab495-2c38-444c-ba15-5a6b30f6a017.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7897395007256</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Duplo Malte Lata 350ml</t>
+          <t>Cerveja Petra Puro Malte Lata 269ml</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,19</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e17d3cc2-e383-4236-b70d-4135de64fccd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc7d5326-f3bc-4511-bd88-4908227a8c4a.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7897395099299</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Chopp Zero Álcool Lata 350ml</t>
+          <t>Cerveja Beck`s Puro Malte Long Neck 330ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0963756-ddd1-4dd9-bf92-599f3c525cab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb83c9ca-c491-43ed-9963-6d0073882a3f.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7897395001292</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cerveja Skol Pilsen Lata 350ml</t>
+          <t>Cerveja Estrella Galicia Lata 350ml</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29cb50a2-16e4-4bf4-8223-cb0062f7e020.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5859c0d-1e93-4198-bd59-c08c74b20b78.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898953990065</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cerveja Stella Artois Premium Lager Lata 269ml</t>
+          <t>Cerv Wienbier Bock 710ml</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c30cab-1dce-4c39-b6d2-949f49886504.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f56e0202-f528-44bf-8d7a-eea37a627485.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898099394680</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cerveja Lager Budweiser Lata 350ml</t>
+          <t>Cerveja Estrella Galicia Long Neck 355ml</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c09f2b6a-936b-4032-95e0-546757886f34.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cff22d5e-0135-4713-a50b-e1bd4a4c35fa.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898953990140</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cerveja Amstel Ultra 269ml Puro Malte</t>
+          <t>Cerveja Estrella Galicia Grf 600ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,69</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1276fa5e-0ad4-4cae-bd6c-16811ecb01c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a43e881c-0592-4eee-b845-8fc01877804d.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898953990010</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cerveja Zero Álcool Budweiser Lata 350ml</t>
+          <t>Cerveja Corona Extra Long Neck 330ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66ab7953-4d76-4b6d-8bfd-6be13c72b7fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7e95a33-ebeb-4bd3-a055-a74bcf986901.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891991303484</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1458,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cerveja Budweiser Zero Álcool Long Neck 330ml</t>
+          <t>Cerveja Becks Puro Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1308,7 +1468,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70ca7fb4-b802-488f-b548-df8a4e0ca069.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6753102-bb11-4ba8-a01c-4a08a44a4cb0.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7897395001247</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cerveja Pet Lager Mega Chopp 1,5 Litros</t>
+          <t>Cerveja Brahma Duplo Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9dd2e140-fff1-4d1a-a5ce-1f31f5ae697c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e17d3cc2-e383-4236-b70d-4135de64fccd.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891991295277</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cerveja Witbier Baden Baden Coentro E Laranja Lata 350ml</t>
+          <t>Cerveja Belgian White Blue Moon Wheat Ale Long Neck 355ml</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14c060af-d0cf-40c4-92be-61ca1a07dab1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1f1c15-2507-4a42-9c0a-eba08533c525.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896045506514</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cerveja Stella Artois Puro Malte Lata 350ml</t>
+          <t>Cerveja Heineken Zero Álcool Lager Lata 350ml</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 5,29</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b84fa129-6241-47c3-ba01-77e065ec0586.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fea0cb8-9a23-452e-a8c4-7baef6e66786.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896045506910</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Chopp Pilsen Lata 269ml</t>
+          <t>Cerveja Estrella Galicia Lata 269ml</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,19</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f6bfc7-762a-4276-be54-2751873b87ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/731e8ffb-d841-4cd1-a714-86e58eb81df9.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898953990027</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn Weizenbier Long Neck 355ml</t>
+          <t>Cerveja Black Princess Gold Puro Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b51b63c4-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5f7191-3631-4558-b38a-4bdcb17e62ca.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7897395000769</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Zero Álcool Lager Long Neck 330ml</t>
+          <t>Cerveja Colorado Appia Lata 350ml</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3633f25-5e4c-4eef-96ac-4d9d9e2c0621.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c06e23d-5014-429c-abb6-21e7ffde77d2.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898605254132</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Zero Álcool Lager Lata 350ml</t>
+          <t>Cerveja Petra 473ml Puro Malte</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fea0cb8-9a23-452e-a8c4-7baef6e66786.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae4cfb32-bc70-4919-b12c-f93dc5b9c2f4.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7897395099695</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cerveja Original Pilsen Lata 350ml</t>
+          <t>Cerveja Therezopolis Grf 500ml Jade Ipa</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b775efa0-dce0-483b-8efe-15ea1c8f4ddc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99ed252b-8cd5-4066-ba4d-82124834147c.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896371000212</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cerveja Pilsen Itaipava Lata 473ml</t>
+          <t>Cerveja Therezopolis Grf 500ml Gold Lager</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,19</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fabe022f-4088-479b-977e-d64d6c4db7b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/548f72e7-e7f5-4631-93aa-fdcc4c319034.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896371000182</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cerveja Hoegaarden Lata 269ml</t>
+          <t>Cerveja Therezópolis Rubine Bock Garrafa 500ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b62792c2-a8a2-4dae-9d72-6132a12ffbc3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06ddbc31-dc20-41ec-b224-b9e751e32592.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896371000236</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn 355ml Pale Ale</t>
+          <t>Cerv Therezopolis Grf 500ml Weissibier</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3ab3ad3-9468-4bc1-9055-a65878c81730.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/677e8f03-e1d2-488a-9a5b-9eadb528b764.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896371000205</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cerveja Baden Baden Peach Hefeweizen Lata 350ml</t>
+          <t>Cerveja Brahma Duplo Malte Lata 269ml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bb7cca3-00b3-4f5d-8996-33b866a0bf15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2892cee0-177f-4942-bada-a77c6b5e2136.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891991295277</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Chopp Pilsen Lata 350ml</t>
+          <t>Cerveja Amstel Ultra 269ml Puro Malte</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ccbaedb-ec8e-4ef9-b781-c333432339a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1276fa5e-0ad4-4cae-bd6c-16811ecb01c2.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896045506415</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cerveja Itaipava Malzbier Lata 350ml</t>
+          <t>Cerveja Therezópolis Gold Lager Lata 350ml</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bc53d9a-da9d-40e7-a426-d2331eea870d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80de8e89-fe2d-4278-98a1-68185171dd7a.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896371000007</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cerveja Pilsen Cristal Baden Baden Lt 350ml</t>
+          <t>Cerveja Cabaré Puro Malte Lata 350ml</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e61a8fa-1bb5-4007-abdc-ca7094fc6168.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11eca4bb-acfe-48ce-abc5-66585b066cc9.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7897395001247</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cerveja Michelob Ultra Lata 350ml</t>
+          <t>Cerveja Cabare Puro Malte Long Neck 330ml</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,79</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/749e85f4-0696-4c84-8cb7-62a5d5a2315f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0419b39f-bd81-4699-bd83-ba3dad0ccdd1.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7897395001292</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cerveja Corona Lata 269ml</t>
+          <t>Cerveja Black Princess Gold Garrafa 330ml</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d2a8695-ea95-4aa5-975c-306aeed300a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36c04690-bfe8-4fa7-8473-1936875d0a9b.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7897395000769</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Malzibier Lt 350ml</t>
+          <t>Cerveja Itaipava Pilsen 330ml</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a253a87c-e49d-4aad-a650-fc95cd5035cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/588ae5d0-d9a7-4238-934c-b42241776762.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7897395000974</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cerveja Petra 473ml Puro Malte</t>
+          <t>Cerveja Petra Escura 330ml Long Neck</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae4cfb32-bc70-4919-b12c-f93dc5b9c2f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f12f93d2-e79e-40f1-9aa4-564891e7462d.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891991303484</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cerveja Colorado Appia Lata 350ml</t>
+          <t>Cerveja Therezopolis 500ml Ebenholz Dunkel</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c06e23d-5014-429c-abb6-21e7ffde77d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfa1185b-1e78-444e-a7c5-827e3e41e935.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896371000199</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cerveja Baden Baden Lata 350ml Golden</t>
+          <t>Chopp Wienbier 55 Pilsen 1,5lt</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31faec1a-74ba-496c-b450-2f0edb46da55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d41f565a-a4ff-4f25-9228-48bcded83080.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898099397537</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn American Ipa Lata 350ml</t>
+          <t>Cerveja Spaten Puro Malte Lata 269ml</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 3,89</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76a7cf92-67e4-4f8a-b48c-fc2c1923871d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9d0a488-8b67-4dae-a919-dc87c350d0a7.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7897395099299</t>
         </is>
       </c>
     </row>
@@ -1919,7 +2194,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cerveja Budweiser Pilsen Long Neck 330ml</t>
+          <t>Cerveja Budweiser Zero Álcool Long Neck 330ml</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1929,7 +2204,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4b42588-73a2-4f82-8765-6b53b58952fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70ca7fb4-b802-488f-b548-df8a4e0ca069.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891991298421</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cerveja Stella Artois Puro Malte Long Neck 330ml</t>
+          <t>Cerveja Zero Álcool Budweiser Lata 350ml</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88f2b2fe-41de-42ab-867d-3880fa7bfc6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66ab7953-4d76-4b6d-8bfd-6be13c72b7fb.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891991010481</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cerveja Itaipava Zero Álcool Pilsen Lata 350ml</t>
+          <t>Cerveja Baden Baden Peach Hefeweizen Lata 350ml</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1d69363-4826-4eb9-8666-3325da57f025.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bb7cca3-00b3-4f5d-8996-33b866a0bf15.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898230716722</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cerveja Patagonia Bohemian Pilsener Lata 350ml</t>
+          <t>Cerveja Hocus Pocus Lata 350ml Alma</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad135ce-3a92-45e9-8c07-924072861716.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d93cdd7e-af4c-404f-9c46-ed9657233edd.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7898961748863</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cerveja Pilsen Bavaria Lata 350ml</t>
+          <t>Cerveja Hocus Pocus Lata 350ml Aura</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6fa5f82-23c2-4fc8-82db-562671559ab0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed44dfb9-25ff-45fd-9ad4-cfa3a53478f5.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7898961748863</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cerveja Amstel Lt 473ml Puro Malte</t>
+          <t>Cerveja Hocus Pocus Lata 350ml Orange Sunshine</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b47821a3-4796-40af-b15e-3decbd43da80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c59391-5ef1-4633-9023-482456304fbf.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7898961748870</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cerveja Estrella Galicia Grf 600ml</t>
+          <t>Cerveja Pet Lager Mega Chopp 1,5 Litros</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 12,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a43e881c-0592-4eee-b845-8fc01877804d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9dd2e140-fff1-4d1a-a5ce-1f31f5ae697c.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896758804808</t>
         </is>
       </c>
     </row>
@@ -2121,6 +2431,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a9221f0-1dfa-4b77-9393-15f3db0f11ef.jpg</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891991307048</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cerveja Patagonia Amber Lager Lata 350ml</t>
+          <t>Cerveja Corona Lata 350ml</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0436ea4b-f15a-4ca2-b43f-8db218068f5c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea535d9-5769-484d-917e-ea06010a5e9d.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891991295055</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cerveja Itaipava Pilsen Long Neck 250ml</t>
+          <t>Cerveja Cero Sunbrew Zero Álcool Corona Long Neck 330ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8feeea92-e9dd-4d86-8051-c006fabd98f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f53d2d3-9b00-458a-b050-6835f653b9db.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891991303484</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cerveja Sol Premium Zero Long Neck 330ml</t>
+          <t>Cerveja Spaten Ln 330ml</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22cda6c1-9858-4099-969c-1faac5a48b5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5123826e-85c1-47e5-ac23-fb4e288692d2.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891991305440</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cerveja Petra Escura 330ml Long Neck</t>
+          <t>Cerveja Stella Artois Pure Gold Lt 269ml</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f12f93d2-e79e-40f1-9aa4-564891e7462d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c74b65a1-6fbb-4fbd-a863-e6dc2bedb229.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7891991306461</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cerveja Becks Puro Malte Lata 350ml</t>
+          <t>Cerveja Sol Premium Zero Long Neck 330ml</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6753102-bb11-4ba8-a01c-4a08a44a4cb0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22cda6c1-9858-4099-969c-1faac5a48b5b.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896045507368</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cerveja Stella Artois Pure Gold Long Neck 330ml</t>
+          <t>Cerveja Praya Long Neck 355ml Larger</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55d219d4-bc08-4340-997d-52bf5d1816d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aae48f0e-f21a-4035-8bcd-dd58b74217d2.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7898694491487</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cerveja Cero Sunbrew Zero Álcool Corona Long Neck 330ml</t>
+          <t>Cerveja Baden Baden Grf 600ml Peach</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f53d2d3-9b00-458a-b050-6835f653b9db.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a02437c-f468-4465-b600-7d2aa514e67f.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7898230716753</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cerveja Michelob Pilsen Ultra 330ml</t>
+          <t>Chopp De Vinho Draft 600ml Tinto Zero Álcool</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0360be14-b3ac-4fed-9c2f-f0da61541a48.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/378d4c11-ef8f-4c6d-897c-6afeb000dd6b.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896494211083</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cerveja Baden Baden American Ipa Garrafa 600ml</t>
+          <t>Cerveja Praya Long Neck 330ml Larger</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0996437a-f791-4e50-81e9-5c9000d2c627.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f61fcb2-448c-4637-a56d-95f0064f2428.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7898694491562</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cerveja Munich Helles Puro Malte Spaten Garrafa 600ml</t>
+          <t>Cerveja Estrella Galicia Long Neck 330ml Tostada Zero Álcool</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 10,49</t>
+          <t>R$ 7,29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94249754-6196-46df-aa06-6b4e9a5aa936.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c166cd-5e89-46ef-b1d1-0fa3469b26d3.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7898953990140</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cerveja Colorado Ribeirão Lager Garrafa 600ml</t>
+          <t>Cerveja Estrella Galicia Long Neck 330ml Zero Álcool</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f79e3d50-d788-4d68-99f2-6d6f809cc32f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b485a28-39a7-438e-9a68-982f84d3d794.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898953990140</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cerveja Antarctica Subzero Lata 350ml</t>
+          <t>Cerveja Therezópolis Long Neck 355ml Witbier Or Blanc</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5b73b0d-fdc8-4558-9cc0-a9efc3237c72.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca954c20-37c2-4580-bfe0-f1276c15798a.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896371000373</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cerveja Eisenbahn Pilsen Unfiltered Lata 350ml</t>
+          <t>Cerveja Therezópolis Lata 350ml Session Ipa</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,39</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1311a128-c775-4db7-b814-db40f3f80476.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58fd3076-051c-4911-a2c0-9508e5e57221.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896371000342</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cerveja Weisse Patagonia Lata 350ml</t>
+          <t>Cerveja Therezópolis Lata 350ml Witbier Or Blanc</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1745c6d4-a45a-4acd-9d77-9c43b3cc88d9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35886722-5654-4fd7-862d-470061d993dc.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896371000380</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cerveja Escura Caracu Lata 350ml</t>
+          <t>Cerveja Eisenbahn 355ml Pale Ale</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 6,39</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffae7668-566d-489f-8e63-89e6783bd911.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3ab3ad3-9468-4bc1-9055-a65878c81730.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7898367980034</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Liquido Retornavel 300ml</t>
+          <t>Pack Cerveja Pilsen Puro Malte Eisenbahn Garrafa 355ml com 6 Unidades</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 2,59</t>
+          <t>R$ 42,17</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eebe5129-1981-47c2-ab79-dc864aafcf28.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49cf06de-369b-401d-8883-2200b85ae39c.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7898367980010</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cerveja Original One Way 300ml</t>
+          <t>Cerveja Munich Helles Puro Malte Spaten Garrafa 600ml</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 10,49</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db7da7d8-e11b-4c89-b496-cb229a6c59c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94249754-6196-46df-aa06-6b4e9a5aa936.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891991297547</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cerveja Spaten Ln 330ml</t>
+          <t>Cerveja Eisenbahn Long Neck 355ml Unfiltred</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5123826e-85c1-47e5-ac23-fb4e288692d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c574246-3946-439e-abcb-d110dfb5961f.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7898367984346</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cerveja Cabaré Puro Malte Lata 350ml</t>
+          <t>Cerveja Eisenbahn 355ml Pilsen</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11eca4bb-acfe-48ce-abc5-66585b066cc9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/087fefbd-93ef-49af-89b5-48facb94a001.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7898367980010</t>
         </is>
       </c>
     </row>
@@ -2648,7 +3058,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cerveja Cacildis Puro Malte Lata 350ml</t>
+          <t>Cerveja Eisenbahn Pilsen Unfiltered Lata 350ml</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2658,7 +3068,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f05ab495-2c38-444c-ba15-5a6b30f6a017.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1311a128-c775-4db7-b814-db40f3f80476.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7898367983790</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cerveja Estrella Galicia Long Neck 355ml</t>
+          <t>Cerveja Eisenbahn Pale Ale Lata 350ml</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cff22d5e-0135-4713-a50b-e1bd4a4c35fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f0047b7-7f6d-4313-92bc-53fff4ca2f21.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898367980034</t>
         </is>
       </c>
     </row>
@@ -2702,1988 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cerveja Petra Long Neck Puro Malte</t>
+          <t>Cerveja Eisenbahn Weizenbier Long Neck 355ml</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d45553d4-3d9f-46e6-83c5-b0b3b9c7ac97.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Cerveja Stella Artois Pure Gold Lt 269ml</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c74b65a1-6fbb-4fbd-a863-e6dc2bedb229.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Cerveja Colorado Indica Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ed49f89-39df-4127-8249-94f3cc1625b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Chopp Wienbier 55 Pilsen 1,5lt</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d41f565a-a4ff-4f25-9228-48bcded83080.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Cerveja Eisenbahn Pale Ale Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f0047b7-7f6d-4313-92bc-53fff4ca2f21.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Cerveja Beck`s Puro Malte Long Neck 330ml</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb83c9ca-c491-43ed-9963-6d0073882a3f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Cerveja Eisenbahn Long Neck 355ml Unfiltred</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c574246-3946-439e-abcb-d110dfb5961f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Cerveja Cerpa Export Long Neck 350ml</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 7,69</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb93d71d-92b3-43e0-97d4-cc8f17bb7812.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Cerveja Corona Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea535d9-5769-484d-917e-ea06010a5e9d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Cerveja Praya Long Neck 355ml Larger</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aae48f0e-f21a-4035-8bcd-dd58b74217d2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Cerveja Skol Liquido Retornavel 300ml</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a88728c0-9a1b-40d7-ade2-1389feb79c4b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Cerveja Amstel 275ml Puro Malte Ultra</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 4,89</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e18f747-4dc0-4740-a23e-0d2d662c3086.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Cerveja Ipa Sampa Session 600ml</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f31643f3-4949-43bc-9b9c-9b3a17314816.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Cerveja Baden Baden Lata 350ml Amber Lager</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f67f03f-0a7b-45a5-b148-cabb91cc2c66.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Cerveja Eisenbahn 355ml Pilsen</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 5,79</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/087fefbd-93ef-49af-89b5-48facb94a001.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Cerv Patagonia Amber Lager L. Neck355ml</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb99abbc-d5dc-4f85-a2ef-3c60a1aeb17c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Cerveja Cabare Puro Malte Long Neck 330ml</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 4,79</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0419b39f-bd81-4699-bd83-ba3dad0ccdd1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Cerveja Black Princess Gold Garrafa 330ml</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36c04690-bfe8-4fa7-8473-1936875d0a9b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Cerveja Itaipava Pilsen 330ml</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/588ae5d0-d9a7-4238-934c-b42241776762.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Cerveja Baden Baden Crystal 600ml</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ebb941c-ae62-444c-9add-945c9b705a5d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Cerveja Baden Baden Golden Ale 600ml</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e948dcc6-16bd-4f2f-a7c5-11d7ec2e3bb3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Cerveja Estrella Galicia Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 5,79</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5859c0d-1e93-4198-bd59-c08c74b20b78.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Cerveja Hocus Pocus Lata 350ml Orange Sunshine</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c59391-5ef1-4633-9023-482456304fbf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Cerveja Pilsen Cauim Colorado Garrafa 600ml</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7092748b-9e1b-46a4-95a0-fbc80545d3c4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Cerveja Lagunitas Ipa 350ml Lata</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb21cf2e-20c0-4eb4-8a63-6d6cd21b62f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Cerveja Wienbier 55 Pilsen 710ml</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f91d1a0d-62dc-4c6d-939c-e60ae57172e0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Cerveja Blue Moon Belgian White Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20072480-1389-4707-97a9-6f0a5ccc7748.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Cerveja Brahma Chopp Pilsen Lata 473ml</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d553aef0-5cad-40f1-83f2-2f4ac8dfd096.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Cerveja Witbier Baden Baden Garrafa 600ml</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c90ee53-bddf-4300-81fc-e23cfb93c8ca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Chopp Wienbier 59 Ipa 1,5l</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f480202-fb51-4a5a-b61e-ab1604744019.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Cerveja Colorado Indica Garrafa 600ml</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe91f923-f95f-4977-9a98-325d100c074b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Cerveja Áustria Lager Garrafa 600ml</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75760d97-b39a-467e-94e1-ea0945a718c3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Cerv Wienbier Puro Malte 59 Ipa 710ml</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d73a8c1-66e8-40d7-99a9-fb9cd703e5ad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Chopp Wienbier 58 Vinho Tinto 1,5lt</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c258a78d-2efa-4405-8c58-4353f56214ac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Cerveja Therezopolis Grf 500ml Gold Lager</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/548f72e7-e7f5-4631-93aa-fdcc4c319034.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Cerv Roleta Russa Imperial Ipa 500ml</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6c48b1d-960a-40cd-8429-c552a78e9746.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Cerveja Black Princes Gf 600ml Doctor Weiss</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f426c743-d938-4f76-877c-d7698688b108.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Cerveja Therezopolis Grf 500ml Jade Ipa</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99ed252b-8cd5-4066-ba4d-82124834147c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Cerveja Therezopolis 500ml Ebenholz Dunkel</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfa1185b-1e78-444e-a7c5-827e3e41e935.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Cerveja Pilsen Bavaria Lata 473ml</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 3,89</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa5e7c37-f11e-44fc-84ae-b0dfe830e3a2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Cerv Wienbier 56 Black 710ml</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aaa30c8c-08f7-4c25-a800-0283948fc0d2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Cerv Wienbier 58 Vinho 710ml</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 12,29</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b579324f-771a-481b-baea-ccd41c7f25d0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Cerveja Wienbier Sem Glúten 55 Lata 710ml</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/031ee1e9-b179-43f2-a1c0-078f32b9dcb0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Cerveja Belgian White Blue Moon Wheat Ale Long Neck 355ml</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 11,59</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1f1c15-2507-4a42-9c0a-eba08533c525.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Cerv Ipa Long Neck 355ml Lagunitas</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 11,59</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeae9b7e-a388-471b-9ecd-5b9f487728c2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Cerveja Patagonia Weisse Garrafa 740ml</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 15,69</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60143cca-5aee-4800-93c8-911e229c5f56.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Cerv Schornstein All Day 355ml Ipa</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c52de68e-b061-463f-a695-43f00e599860.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Cerveja Patagonia Long Neck 355ml Weisse</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbb657e7-edcd-48fb-862d-7ddedbb1de5c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Cerveja Therezópolis Rubine Bock Garrafa 500ml</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06ddbc31-dc20-41ec-b224-b9e751e32592.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Cerveja Hocus Pocus Lata 350ml Alma</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d93cdd7e-af4c-404f-9c46-ed9657233edd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cerveja Estrella Galicia Long Neck 330ml Zero Álcool</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b485a28-39a7-438e-9a68-982f84d3d794.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Cerveja Black Princes Escura 600ml</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbfea8f1-942f-40b9-b476-2f6b014204fd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Cerveja Ipa Schornstein Gf 500ml</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89505605-9ccd-4819-9cb6-2c67ac4a4af5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Cerv Wienbier De Trigo 710ml</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5685e3f7-f1e7-4933-bbd4-352f3088c5f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Cerveja Itaipava Long Neck 0,0% 330ml</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fdfd816-df21-49fe-9f6a-1650f501ba7f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Chopp De Vinho Draft 600ml Tinto Zero Álcool</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/378d4c11-ef8f-4c6d-897c-6afeb000dd6b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Cerv Wienbier Bock 710ml</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f56e0202-f528-44bf-8d7a-eea37a627485.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Cerv Krug Ignorancia Ipa 500ml Double</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ee3c4b2-39cd-413f-90e9-9235b23c1e2c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Cerveja Baden Baden Grf 600ml Peach</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a02437c-f468-4465-b600-7d2aa514e67f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Cerv Schornstein 355ml American Larger</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8c2ffeb-794a-4cbf-9ea3-cb7001c0847e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Pack Cerveja Pilsen Puro Malte Eisenbahn Garrafa 355ml com 6 Unidades</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 42,17</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49cf06de-369b-401d-8883-2200b85ae39c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Cerveja Hocus Pocus Lata 350ml Aura</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed44dfb9-25ff-45fd-9ad4-cfa3a53478f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Cerv Roleta Russa New England 350ml</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aba2a145-42fb-47b1-b1d7-4a75c428ff8c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Cerv Roleta Russa Ipa Ln355ml Imperial</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3badd65c-2599-4643-bc7a-695ee207d8b6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Cerv Therezopolis Grf 500ml Weissibier</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/677e8f03-e1d2-488a-9a5b-9eadb528b764.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Cerveja Krug German Long Neck 355ml Pilsen</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73cf2416-abac-41fc-8146-49dc1188ce60.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Cerveja 1906 La Milnueve Long Neck 355ml</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f74a5fa-3013-47a5-a250-e34566714af7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Cerveja Lagunitas Long Neck 355ml Day Time</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Cerveja Lagunitas Lata 350ml Day Time</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0b517ae-d862-4165-88ab-211b08a38526.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Cerveja Estrella Galicia Long Neck 330ml Tostada Zero Álcool</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 7,29</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c166cd-5e89-46ef-b1d1-0fa3469b26d3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Cerveja Therezópolis Long Neck 355ml Witbier Or Blanc</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca954c20-37c2-4580-bfe0-f1276c15798a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Cerveja Therezópolis Lata 350ml Session Ipa</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 5,39</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58fd3076-051c-4911-a2c0-9508e5e57221.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Cerveja Therezópolis Lata 350ml Witbier Or Blanc</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35886722-5654-4fd7-862d-470061d993dc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Cervejas</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Cerveja Praya Long Neck 330ml Larger</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f61fcb2-448c-4637-a56d-95f0064f2428.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b51b63c4-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898367980041</t>
         </is>
       </c>
     </row>
